--- a/exe/TSV/Excel/StationList.xlsx
+++ b/exe/TSV/Excel/StationList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65D813B-6C57-4329-BB6D-A31F22894C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9960C0D-7269-4E12-90BE-B0BA9083C638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="5835" windowWidth="24300" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="5685" yWindow="5550" windowWidth="24165" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>FileName</t>
     <phoneticPr fontId="1"/>
@@ -35,127 +35,200 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>W01_Tatehama_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W02_Komano_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W06_Tsuzaki_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W07_Hamazono_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W10_Shin-Nozaki_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W11_Enohara-Inspection-Switchboard_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W11_Enohara-Inspection-Indicater_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W12_Daidoji_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W13_Fujie_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W14_Mizukoshi_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W15_Takamizawa_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W16_Hinomori_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W18_Nishi-Akayama_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W19_Akayamacho_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W01_館浜駅_UIList</t>
-    <rPh sb="4" eb="5">
+    <t>StationName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>館浜駅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駒野駅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>津崎駅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浜園駅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新野崎駅</t>
+  </si>
+  <si>
+    <t>江ノ原検車区操作盤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>江ノ原検車区表示盤</t>
+  </si>
+  <si>
+    <t>大道寺駅</t>
+  </si>
+  <si>
+    <t>藤江駅</t>
+  </si>
+  <si>
+    <t>水越駅</t>
+  </si>
+  <si>
+    <t>高見沢駅</t>
+  </si>
+  <si>
+    <t>日野森駅</t>
+  </si>
+  <si>
+    <t>西赤山駅</t>
+  </si>
+  <si>
+    <t>赤山町駅</t>
+  </si>
+  <si>
+    <t>ApproachingAlarm_DownSide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ApproachingAlarm_UpSide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bz_high_long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bz_low_long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bz_high_short</t>
+  </si>
+  <si>
+    <t>bz_low_short</t>
+  </si>
+  <si>
+    <t>TH76_Tatehama_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH76_館浜駅_UIList</t>
+    <rPh sb="5" eb="6">
       <t>タテ</t>
     </rPh>
-    <rPh sb="5" eb="6">
+    <rPh sb="6" eb="7">
       <t>ハマ</t>
     </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="7" eb="8">
       <t>エキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>W02_駒野駅_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W06_津崎駅_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W07_浜園駅_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W10_新野崎駅_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W11_江ノ原検車区操作盤_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W11_江ノ原検車区表示盤_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W12_大道寺駅_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W13_藤江駅_UIList</t>
-    <rPh sb="6" eb="7">
+    <t>TH75_Komano_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH75_駒野駅_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH71_Tsuzaki_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH71_津崎駅_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH70_Hamazono_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH70_浜園駅_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH67_Shin-Nozaki_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH67_新野崎駅_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH66_Enohara-Inspection-Switchboard_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH66_江ノ原検車区操作盤_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH66_Enohara-Inspection-Indicater_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH66_江ノ原検車区表示盤_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH65_Daidoji_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH65_大道寺駅_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH64_Fujie_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH64_藤江駅_UIList</t>
+    <rPh sb="7" eb="8">
       <t>エキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>W14_水越駅_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W15_高見沢駅_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W16_日野森駅_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W18_西赤山駅_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W19_赤山町駅_UIList</t>
+    <t>TH63_Mizukoshi_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH63_水越駅_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH62_Takamizawa_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH62_高見沢駅_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH61_Hinomori_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH61_日野森駅_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH59_Nishi-Akayama_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH59_西赤山駅_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH58_Akayamacho_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH58_赤山町駅_UIList</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -547,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -555,138 +628,276 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="44.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="21" width="18.75" customWidth="1"/>
-    <col min="22" max="22" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="22" width="18.75" customWidth="1"/>
+    <col min="23" max="23" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/StationList.xlsx
+++ b/exe/TSV/Excel/StationList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9960C0D-7269-4E12-90BE-B0BA9083C638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABB3BBA-ACA3-42AF-8BC2-F8363A42C791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="5550" windowWidth="24165" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="10575" yWindow="4500" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>FileName</t>
     <phoneticPr fontId="1"/>
@@ -92,20 +92,6 @@
   <si>
     <t>ApproachingAlarm_UpSide</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bz_high_long</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bz_low_long</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bz_high_short</t>
-  </si>
-  <si>
-    <t>bz_low_short</t>
   </si>
   <si>
     <t>TH76_Tatehama_UIList</t>
@@ -229,6 +215,22 @@
   </si>
   <si>
     <t>TH58_赤山町駅_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>730Hz_short</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>410Hz_long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DirectionLeverAlarm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>610Hz_long</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -620,11 +622,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -645,7 +645,7 @@
     <col min="23" max="23" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,243 +661,288 @@
       <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/StationList.xlsx
+++ b/exe/TSV/Excel/StationList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABB3BBA-ACA3-42AF-8BC2-F8363A42C791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FE71A3-A911-4B5F-8E3D-CEA294A91E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="4500" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="5640" yWindow="5100" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>FileName</t>
     <phoneticPr fontId="1"/>
@@ -143,22 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TH66_Enohara-Inspection-Switchboard_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TH66_江ノ原検車区操作盤_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TH66_Enohara-Inspection-Indicater_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TH66_江ノ原検車区表示盤_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TH65_Daidoji_UIList</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -231,6 +215,78 @@
   </si>
   <si>
     <t>610Hz_long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StationNumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH76</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH71</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH70</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH67</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH63</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH62</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH61</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH59</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH58</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH66S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH66S_Enohara-Inspection-Switchboard_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH66S_Enohara-Inspection-Indicater_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH66S_江ノ原検車区操作盤_UIList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH66S_江ノ原検車区表示盤_UIList</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -622,30 +678,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="45.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="22" width="18.75" customWidth="1"/>
-    <col min="23" max="23" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.75" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="23" width="18.75" customWidth="1"/>
+    <col min="24" max="24" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -656,16 +715,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -676,16 +738,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -696,16 +761,19 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -716,16 +784,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -736,16 +807,19 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -756,193 +830,223 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/StationList.xlsx
+++ b/exe/TSV/Excel/StationList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FE71A3-A911-4B5F-8E3D-CEA294A91E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777E976F-C71F-47A2-8D97-D385F05C7438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="5100" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="8490" yWindow="4470" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>FileName</t>
     <phoneticPr fontId="1"/>
@@ -84,14 +84,6 @@
   </si>
   <si>
     <t>赤山町駅</t>
-  </si>
-  <si>
-    <t>ApproachingAlarm_DownSide</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ApproachingAlarm_UpSide</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>TH76_Tatehama_UIList</t>
@@ -199,22 +191,6 @@
   </si>
   <si>
     <t>TH58_赤山町駅_UIList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>730Hz_short</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>410Hz_long</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DirectionLeverAlarm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>610Hz_long</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -354,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,6 +338,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,11 +657,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -690,9 +667,7 @@
     <col min="2" max="2" width="32.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
     <col min="11" max="11" width="6.625" bestFit="1" customWidth="1"/>
@@ -704,7 +679,7 @@
     <col min="24" max="24" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -715,338 +690,203 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/StationList.xlsx
+++ b/exe/TSV/Excel/StationList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777E976F-C71F-47A2-8D97-D385F05C7438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145BF5F0-8974-4797-9026-E01865814EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="4470" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="1890" yWindow="4125" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>FileName</t>
     <phoneticPr fontId="1"/>
@@ -265,12 +265,35 @@
     <t>TH66S_江ノ原検車区表示盤_UIList</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>DownSideApproachingAlarmName</t>
+  </si>
+  <si>
+    <t>DirectionLeverAlarmName</t>
+  </si>
+  <si>
+    <t>730Hz_short</t>
+  </si>
+  <si>
+    <t>410Hz_long</t>
+  </si>
+  <si>
+    <t>610Hz_long</t>
+  </si>
+  <si>
+    <t>730Hz_short</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpSideApproachingAlarmName</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +309,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,8 +339,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -324,23 +369,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,7 +766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,6 +776,9 @@
     <col min="2" max="2" width="32.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
@@ -679,7 +791,7 @@
     <col min="24" max="24" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,8 +804,17 @@
       <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -706,8 +827,17 @@
       <c r="D2" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -720,8 +850,17 @@
       <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -734,8 +873,17 @@
       <c r="D4" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -748,8 +896,17 @@
       <c r="D5" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -762,8 +919,17 @@
       <c r="D6" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -776,8 +942,17 @@
       <c r="D7" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -790,8 +965,17 @@
       <c r="D8" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -804,8 +988,17 @@
       <c r="D9" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -818,8 +1011,17 @@
       <c r="D10" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -832,8 +1034,17 @@
       <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -846,8 +1057,17 @@
       <c r="D12" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -860,8 +1080,17 @@
       <c r="D13" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -874,8 +1103,17 @@
       <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -887,6 +1125,15 @@
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
